--- a/common/sentences_s2.xlsx
+++ b/common/sentences_s2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JARS\RST_psychopy\common\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="18675" windowHeight="11550"/>
+    <workbookView xWindow="360" yWindow="348" windowWidth="18672" windowHeight="11556"/>
   </bookViews>
   <sheets>
     <sheet name="sentences_s2" sheetId="1" r:id="rId1"/>
@@ -767,6 +772,7 @@
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
@@ -783,7 +789,6 @@
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -793,6 +798,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -841,7 +849,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -876,7 +884,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1087,411 +1095,413 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>

--- a/common/sentences_s2.xlsx
+++ b/common/sentences_s2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JARS\RST_psychopy\common\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="348" windowWidth="18672" windowHeight="11556"/>
+    <workbookView xWindow="360" yWindow="345" windowWidth="18675" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="sentences_s2" sheetId="1" r:id="rId1"/>
@@ -24,251 +19,1152 @@
     <t>sentences</t>
   </si>
   <si>
-    <t>Tudo passou tão rápido que o casal distraído nem se deu conta.</t>
-  </si>
-  <si>
-    <t>Ele vai à igreja todos os dias pra pedir perdão pelos pecados.</t>
-  </si>
-  <si>
-    <t>Depois de passar por um acidente, ele não pode formar novas memórias.</t>
-  </si>
-  <si>
-    <t>Quem sabe demais às vezes fala o que não deve, diz o meu avô.</t>
-  </si>
-  <si>
-    <t>A moça gosta de comprar muitas peças de roupa nas lojas do centro.</t>
-  </si>
-  <si>
-    <t>Quem não tem animais pra cuidar não sabe como isso pode ser chato.</t>
-  </si>
-  <si>
-    <t>Faz tempo que eles não mandam cartas pra suas amigas de infância.</t>
-  </si>
-  <si>
-    <t>A casa não tinha mais teto nem parede depois do vento de ontem.</t>
-  </si>
-  <si>
-    <t>Ele chegou muito calmo no lugar onde teria o encontro com os pais.</t>
-  </si>
-  <si>
-    <t>As capas de chuva rasgaram e por isso não funcionam mais direito.</t>
-  </si>
-  <si>
-    <t>O mesmo padre sempre reza a missa na capela para seus fiéis.</t>
-  </si>
-  <si>
-    <t>Houve um tempo em que os gatos não viviam dentro de apartamentos.</t>
-  </si>
-  <si>
-    <t>O papel é feito de árvores que são plantadas para esse fim.</t>
-  </si>
-  <si>
-    <t>O livro chegou pelo correio há poucos meses e já está sujo.</t>
-  </si>
-  <si>
-    <t>A mosca pousou em todos os lugares da casa exceto nos quartos.</t>
-  </si>
-  <si>
-    <t>O pote de água está cheio porque o cão não está com sede.</t>
-  </si>
-  <si>
-    <t>A bala atravessa muitas coisas, mas não pode contra este aço aqui.</t>
-  </si>
-  <si>
-    <t>Só quem é mãe sabe como é dar de mamar pra um bebê recém nascido.</t>
-  </si>
-  <si>
-    <t>Contei com ela a vida toda até que tive uma infeliz surpresa.</t>
-  </si>
-  <si>
-    <t>É claro que os peixes não podem andar na praia, mas podem nadar no mar.</t>
-  </si>
-  <si>
-    <t>Diferente das outras árvores, estas não perdem as folhas nunca.</t>
-  </si>
-  <si>
-    <t>Para acompanhar a massa folhada, optou por um café com nata.</t>
-  </si>
-  <si>
-    <t>O meu violão é de madeira, o das crianças é de plástico.</t>
-  </si>
-  <si>
-    <t>O plano diretor da cidade de Porto Alegre proíbe aquilo.</t>
-  </si>
-  <si>
-    <t>Admitiu que a tela em óleo estava linda, mesmo preferindo aquarela.</t>
-  </si>
-  <si>
-    <t>Estacionamentos nesta cidade aí geralmente são rotativos.</t>
-  </si>
-  <si>
-    <t>João ganhou uma bicicleta de aniversário mas queria uma bola.</t>
-  </si>
-  <si>
-    <t>No Campus do Vale há várias salas de aula, e também um teatro.</t>
-  </si>
-  <si>
-    <t>Só se vê com o coração, o essencial é invisível aos olhos.</t>
-  </si>
-  <si>
-    <t>A parada de ônibus dessa rua é muito bem localizada.</t>
-  </si>
-  <si>
-    <t>Todos os dias pela manhã vou para aquela universidade.</t>
-  </si>
-  <si>
-    <t>Após o acidente, ele precisou comprar um novo jogo de rodas.</t>
-  </si>
-  <si>
-    <t>Placas de trânsito precisam ser colocadas nas duas quadras.</t>
-  </si>
-  <si>
-    <t>O vizinho do meu amigo é um atleta muito experiente.</t>
-  </si>
-  <si>
-    <t>O Brasil é o país com o maior número de medalhas de ouro.</t>
-  </si>
-  <si>
-    <t>O material dos tênis de corrida é muito mais leve que este.</t>
-  </si>
-  <si>
-    <t>Eu ia à academia todos os dias com meus dois cachorros.</t>
-  </si>
-  <si>
-    <t>O carro prateado da minha tia está totalmente estragado.</t>
-  </si>
-  <si>
-    <t>Os correios da grande metrópole abrem pelas nove da manhã.</t>
-  </si>
-  <si>
-    <t>O celular antigo do meu amigo foi comprado fora do estado.</t>
-  </si>
-  <si>
-    <t>Os semáforos variam entre as cores verde, vermelho e amarelo.</t>
-  </si>
-  <si>
-    <t>O tio dela adorava mostrar que seu jardim é o mais verde de todos.</t>
-  </si>
-  <si>
-    <t>As casas que foram postas a alugar são baratas e bonitas.</t>
-  </si>
-  <si>
-    <t>Os faróis dos ônibus emitem luz mais forte que dos carros e motos.</t>
-  </si>
-  <si>
-    <t>Condutores costumam não prestar atenção passando pela escola.</t>
-  </si>
-  <si>
-    <t>O concreto armado é uma técnica de construção muito difícil.</t>
-  </si>
-  <si>
-    <t>Dispunham apenas de cones e vassouras para isolar o local.</t>
-  </si>
-  <si>
-    <t>As aves raras que podem ser vistas no parque são lindas.</t>
-  </si>
-  <si>
-    <t>Imagens se formam na sua retina de cabeça para baixo.</t>
-  </si>
-  <si>
-    <t>O teclado produz um ótimo som, para nós parece um piano.</t>
-  </si>
-  <si>
-    <t>Não me restam dúvidas de que neste mato não tem nenhum cachorro.</t>
-  </si>
-  <si>
-    <t>Você não pode ir comigo porque onde eu vou é muito perigoso.</t>
-  </si>
-  <si>
-    <t>Carlos podia ter sentado, mas ele ficou em pé o tempo todo.</t>
-  </si>
-  <si>
-    <t>Fiz um belo bolo de aniversário pra minha mãe comer amanhã.</t>
-  </si>
-  <si>
-    <t>Sempre ouvi dizer que o pinguim era peixe, mas ele é pássaro.</t>
-  </si>
-  <si>
-    <t>Meu ex-noivo podia ter me avisado que não queria mesmo se casar.</t>
-  </si>
-  <si>
-    <t>O melão é uma fruta muito boa para comer quando está calor.</t>
-  </si>
-  <si>
-    <t>Vamos ver o novo filme daquele diretor que está em cartaz no cinema.</t>
-  </si>
-  <si>
-    <t>Ele ficou emocionado com o prêmio que ganhou do seu chefe de setor.</t>
-  </si>
-  <si>
-    <t>Combinei de buscar a minha filha na escola hoje mais tarde.</t>
-  </si>
-  <si>
-    <t>Você tem que agradecer à sua tia por esse lindo colar que ganhou.</t>
-  </si>
-  <si>
-    <t>Felizes são os que têm amigos, pois eles valem mais que ouro.</t>
-  </si>
-  <si>
-    <t>Eu não gosto de quem conta mentiras e de quem trai os amigos.</t>
-  </si>
-  <si>
-    <t>Ele mexeu tanto na receita que ela ficou com um gosto diferente.</t>
-  </si>
-  <si>
-    <t>Me diga o que eu ou minha família podemos fazer pra te ajudar.</t>
-  </si>
-  <si>
-    <t>Calem a boca daquele pobre diabo que não para de gritar.</t>
-  </si>
-  <si>
-    <t>Meu filho vai crescer e se tornar um médico famoso no país.</t>
-  </si>
-  <si>
-    <t>Nem que eu trabalhe o dobro eu vou conseguir pagar isso tudo.</t>
-  </si>
-  <si>
-    <t>Caiu tudo o que eu tinha na mão quando a bola me atingiu.</t>
-  </si>
-  <si>
-    <t>Faço tudo o que posso para melhorar a cada dia como pessoa.</t>
-  </si>
-  <si>
-    <t>Nós somos amigos porque há muitos anos nós éramos vizinhos.</t>
-  </si>
-  <si>
-    <t>As mulheres gostam dele porque ele tem muitas coisas especiais.</t>
-  </si>
-  <si>
-    <t>Só iremos à praia se a sua irmã disser que ela vai também.</t>
-  </si>
-  <si>
-    <t>Meus avós gostam muito de dar comida aos patos no parque à tarde.</t>
-  </si>
-  <si>
-    <t>Cada um é livre para sentir o que quiser, mas não para fazer.</t>
-  </si>
-  <si>
-    <t>Ontem bebi demais no bar da frente e hoje não consigo nem pensar.</t>
-  </si>
-  <si>
-    <t>O branco dos olhos dele tem o mesmo tom da parede do seu quarto.</t>
-  </si>
-  <si>
-    <t>Falei para meus clientes que eles eram os grandes vencedores.</t>
-  </si>
-  <si>
-    <t>Comprei tanta coisa naquela loja cara que agora estou pobre.</t>
-  </si>
-  <si>
-    <t>Meu cão é manso com quem ele gosta e bravo com quem ele odeia.</t>
+    <t>João ganhou uma bicicleta de aniversário mas queria uma bola</t>
+  </si>
+  <si>
+    <t>Sentimentos e pessoas essenciais à vida passam despercebidas aos olhos</t>
+  </si>
+  <si>
+    <t>Errava sempre ao mirar o alvo com seu arco e flecha indígena</t>
+  </si>
+  <si>
+    <t>As aulas acontecem durante toda a manhã na universidade gratuita</t>
+  </si>
+  <si>
+    <t>As boas cunhadas brincavam sempre juntas no parque de diversões</t>
+  </si>
+  <si>
+    <t>Quando o senhor chegou, a filha já havia saído do condomínio</t>
+  </si>
+  <si>
+    <t>Quem sabe demais às vezes fala o que não deve, diz o meu avô</t>
+  </si>
+  <si>
+    <t>O melão é uma fruta muito boa para comer quando está quente</t>
+  </si>
+  <si>
+    <t>Pode ser difícil apagar frases escritas com papel e caneta</t>
+  </si>
+  <si>
+    <t>Carlos podia ter sentado, mas ele ficou em pé o tempo todo</t>
+  </si>
+  <si>
+    <t>Bancos preveem crescimento maior que no mesmo mês do ano anterior</t>
+  </si>
+  <si>
+    <t>O papel é feito de árvores que são plantadas para esse fim</t>
+  </si>
+  <si>
+    <t>As plantas podem crescer com a ajuda de água e da luz do sol</t>
+  </si>
+  <si>
+    <t>Vamos ver o novo filme daquele diretor que está em cartaz no cinema</t>
+  </si>
+  <si>
+    <t>Felizes são os que têm amigos, pois eles valem mais que ouro</t>
+  </si>
+  <si>
+    <t>Condutores costumam não fazer silêncio ao passar perto de hospitais</t>
+  </si>
+  <si>
+    <t>Os semáforos variam entre as cores verde, vermelho e amarelo</t>
+  </si>
+  <si>
+    <t>Não podemos pensar que todos eles foram forçados a participar</t>
+  </si>
+  <si>
+    <t>Houve um tempo em que os gatos não viviam dentro de apartamentos</t>
+  </si>
+  <si>
+    <t>Logo que vi o sujeito, corri para alcançá-lo, mas não consegui</t>
+  </si>
+  <si>
+    <t>Colher milho nunca foi a tarefa mais divertida de acordo com o Zé</t>
+  </si>
+  <si>
+    <t>Alguns gostam de carne, outros preferem plantas e outros aceitam ambos</t>
+  </si>
+  <si>
+    <t>Este bar serve comidas muito boas e uma sobremesa maravilhosa</t>
+  </si>
+  <si>
+    <t>Brinquedos são os presentes favoritos dos bebês no natal e na páscoa</t>
+  </si>
+  <si>
+    <t>No Campus do Vale há várias salas de aula e também um teatro</t>
+  </si>
+  <si>
+    <t>Eu fiz compras em uma loja muito cara e agora estou sem grana</t>
+  </si>
+  <si>
+    <t>Como a nossa querida tia dizia, há males que vêm para o bem</t>
+  </si>
+  <si>
+    <t>As aves raras que podem ser vistas no parque estão em extinção</t>
+  </si>
+  <si>
+    <t>O café que ofereceram tinha muito açúcar e mais parecia melado</t>
+  </si>
+  <si>
+    <t>Nossa fome fez parecer que a laranja foi a melhor que já comemos</t>
+  </si>
+  <si>
+    <t>Ontem bebi demais no bar e hoje estou com muita dor de cabeça</t>
+  </si>
+  <si>
+    <t>Acalme-se pois fico contigo até seu pai chegar e lhe levar embora</t>
+  </si>
+  <si>
+    <t>Vista um casaco grosso porque lá fora está quase caindo neve</t>
+  </si>
+  <si>
+    <t>O plano diretor da cidade de Porto Alegre limita a altura dos prédios</t>
+  </si>
+  <si>
+    <t>Eu saía para caminhar todos os dias com meus dois cachorros</t>
+  </si>
+  <si>
+    <t>Você tem que agradecer à sua tia por esse lindo colar de ouro fino</t>
+  </si>
+  <si>
+    <t>Ele chegou muito calmo no lugar onde teria o encontro com os pais</t>
+  </si>
+  <si>
+    <t>Ele mexeu tanto na receita que ela ficou com um gosto diferente</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O livro chegou pelo correio há </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>boucos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> meses e já está sujo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Contei com ele a vida </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>toba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> até que tive uma infeliz surpresa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diferente de outras árvores, estas não </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">perbem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>as folhas nunca</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lá mora uma avó cega que precisa de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">cuibados </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dos outros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Para ele, é importante melhorar dia após </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>no trabalho que faz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sempre ouvi dizer que o pinguim era </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>beixe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, mas ele é pássaro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O vizinho do meu amigo é um atleta muito </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">exberiente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>do vôlei</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A casa não tinha mais teto nem parede </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">debois </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>do vento de ontem</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As mulheres gostam dele porque ele tem muitos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">odjetos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>de arte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nem que eu trabalhe o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dodro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> eu vou conseguir pagar essa quantia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A mosca pousou em </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tobos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> os lugares da casa exceto nos quartos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Os partidos andam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>aginbo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de forma a apoiar uma guerra civil</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Meu tio sempre gostou de jardinagem e </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tobos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> os dias cuida de plantas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As casas que estão </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>disboníveis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> para alugar são baratas e bonitas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conte até dez e fale baixo para não </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>acorbar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> seus primos mais novos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quando for conveniente, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>venba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> conversar e retirar o seu salário</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aquela padaria serve a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>melbor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> porção de doce de frutas com mel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Meus avós gostam muito de dar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>comiba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> aos patos no parque no outono</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As coisas simples são as mais fáceis de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">lemdrar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>quando se está cansado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Os faróis dos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ônidus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> emitem luz mais forte que os dos carros e motos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O carro </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prateabo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> da minha tia mais nova</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>está totalmente estragado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Imagens se formam na sua retina de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cadeça</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> para baixo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ao dizer adeus, o aluno pôde </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>abenas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> desejar boa sorte ao instrutor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deixei tudo cair das minhas mãos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>quanbo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a bola me atingiu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tudo passou tão rápido que o casal </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bistraído</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> nem se deu conta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As gavetas estão cheias de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>talberes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, e as paredes lembram um museu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Crescer dia e noite na rua </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>derto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> da Lapa motivou-o a agir</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A menina beija sua mãe quando </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>lemdra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> do irmão que está a caminho</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O material dos meus tênis de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>corriba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> é muito flexível e leve</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Salvem aquele pobre </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>diado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> que não para de gritar no canto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bombas e armas estão cada dia mais fortes, e não </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">sademos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>onde vamos parar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quem não tem animais para cuidar não </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> como isso pode ser difícil</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O celular antigo do meu padrasto foi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>combrado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> fora do estado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Logo após bater o carro, Lucas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>besmaiou</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> e não pôde nos avisar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quero saber se você aceitaria um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cobo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de suco de abacaxi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A maneira como ela se </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>comborta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> indica que é uma atriz famosa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estudo diz que grande parte do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>daís</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ficará mais frio que o normal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Só iremos à praia se a sua irmã </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bisser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> que ela vai também</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O mesmo padre </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>semdre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> reza a missa na capela para seus fiéis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pode ser difícil, mas não se deve </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">besistir </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>na primeira vez</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O meu violão é de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mabeira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, o das crianças é de plástico</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Os grandes sinos da torre </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">relemdram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>os dias de glória da nação</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +1300,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -586,7 +1514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -701,6 +1629,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -746,8 +1689,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -772,7 +1728,6 @@
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
@@ -789,6 +1744,7 @@
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -849,7 +1805,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -884,7 +1840,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1095,414 +2051,417 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="114.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="70" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="80" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="81" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>80</v>
       </c>
     </row>
